--- a/Documents/config.xlsx
+++ b/Documents/config.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="47">
   <si>
     <t>Name</t>
   </si>
@@ -37,9 +37,6 @@
     <t>Orchestrator Folder Path</t>
   </si>
   <si>
-    <t>Breakpoint</t>
-  </si>
-  <si>
     <t>Email Completed Folder</t>
   </si>
   <si>
@@ -97,7 +94,52 @@
     <t>Letter Text</t>
   </si>
   <si>
-    <t>Thank you for taking the time to report your experience about the odour from Walleys Landfill. &lt;br&gt;&lt;br&gt;Your report has been logged with reference number: {0}
+    <t>Description Template</t>
+  </si>
+  <si>
+    <t>SWWM - Odour Walleys {0}{0}Rating: {1}{0}Odour Description: {2}{0}At home address?: {3}{0}Location Description: {4}{0}Smell Description: {5}{0}Date Noticed: {6}{0}Time Noticed: {7}</t>
+  </si>
+  <si>
+    <t>Unable to Display Map</t>
+  </si>
+  <si>
+    <t>Notification Recipient</t>
+  </si>
+  <si>
+    <t>Pausepoint 1</t>
+  </si>
+  <si>
+    <t>Pausepoint 2</t>
+  </si>
+  <si>
+    <t>Pausepoint 3</t>
+  </si>
+  <si>
+    <t>Pausepoint 4</t>
+  </si>
+  <si>
+    <t>Local Log File Path</t>
+  </si>
+  <si>
+    <t>C:\Users\{0}\Desktop\Walley_Quarry_Robot_Log_{1}.xlsx</t>
+  </si>
+  <si>
+    <t>Email Account</t>
+  </si>
+  <si>
+    <t>jason.savory@environment-agency.gov.uk</t>
+  </si>
+  <si>
+    <t>Agent Name</t>
+  </si>
+  <si>
+    <t>Jason Savory</t>
+  </si>
+  <si>
+    <t>Lunny Christopher D</t>
+  </si>
+  <si>
+    <t>Thank you for taking the time to report your experience about the odour from Walleys Landfill. &lt;br&gt;&lt;br&gt;Your report has been logged with reference number: {0}&lt;br&gt;&lt;br&gt;
 We understand residents are concerned about odour in the local area. We would like to assure all residents that we take these concerns seriously. All reports are handled with the upmost of care and we endeavour to thoroughly investigate them.&lt;br&gt;
 As part of our regulation of the site we continue to carry out odour assessments and complete both announced and unannounced visits.
 We are unable to provide individuals with feedback, due to the volume of reports we are receiving.&lt;br&gt;&lt;br&gt;
@@ -107,44 +149,44 @@
 If you are concerned about yours or a family member’s mental and/or physical health, then you should contact your General Practitioner (GP), they can ask for appropriate advice from Public Health England. You can also contact NHS Direct on 0845 4647 or visit www.nhsdirect.nhs.uk
 &lt;br&gt;&lt;br&gt;
 Kind Regards
-&lt;br&gt;&lt;br&gt;{2}&lt;br&gt;
+&lt;br&gt;&lt;br&gt;{1}&lt;br&gt;
 Customer Service Adviser &lt;br&gt;
 Incident Communication Service&lt;br&gt;
 Environment Agency</t>
   </si>
   <si>
-    <t>Description Template</t>
-  </si>
-  <si>
-    <t>SWWM - Odour Walleys {0}{0}Rating: {1}{0}Odour Description: {2}{0}At home address?: {3}{0}Location Description: {4}{0}Smell Description: {5}{0}Date Noticed: {6}{0}Time Noticed: {7}</t>
-  </si>
-  <si>
-    <t>Breakpoint 1</t>
-  </si>
-  <si>
-    <t>Breakpoint 2</t>
-  </si>
-  <si>
-    <t>Breakpoint 3</t>
-  </si>
-  <si>
-    <t>Breakpoint 4</t>
-  </si>
-  <si>
-    <t>Unable to Display Map</t>
-  </si>
-  <si>
-    <t>Notification Recipient</t>
-  </si>
-  <si>
-    <t>Hayes Jamie L</t>
+    <t>Spell Check is complete</t>
+  </si>
+  <si>
+    <t>521 : Can't open Clipboard</t>
+  </si>
+  <si>
+    <t>Please spell check before passing the incident. Click Yes to launch it now.</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Run-time error '91'</t>
+  </si>
+  <si>
+    <t>Application</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Please confirm that you wish to forward this notification to</t>
+  </si>
+  <si>
+    <t>Do you wish to produce a notification summary report now?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,6 +198,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -178,10 +228,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -201,8 +252,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="12">
@@ -301,17 +356,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:B15" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
-  <tableColumns count="2">
-    <tableColumn id="1" name="Name" dataDxfId="1"/>
-    <tableColumn id="2" name="Value" dataDxfId="0"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table16" displayName="Table16" ref="A1:B14" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:B18" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <tableColumns count="2">
     <tableColumn id="1" name="Name" dataDxfId="9"/>
     <tableColumn id="2" name="Value" dataDxfId="8"/>
@@ -320,11 +365,21 @@
 </table>
 </file>
 
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table16" displayName="Table16" ref="A1:B17" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <tableColumns count="2">
+    <tableColumn id="1" name="Name" dataDxfId="5"/>
+    <tableColumn id="2" name="Value" dataDxfId="4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table167" displayName="Table167" ref="A1:B8" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table167" displayName="Table167" ref="A1:B10" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
   <tableColumns count="2">
-    <tableColumn id="1" name="Title" dataDxfId="5"/>
-    <tableColumn id="2" name="Action" dataDxfId="4"/>
+    <tableColumn id="1" name="Title" dataDxfId="1"/>
+    <tableColumn id="2" name="Action" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -627,10 +682,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -653,55 +708,55 @@
         <v>2</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>26</v>
+      <c r="A4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -713,51 +768,75 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>11</v>
+      <c r="A10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>6</v>
+      <c r="A11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>4</v>
+      <c r="A12" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>8</v>
+        <v>3</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -771,10 +850,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -793,23 +872,23 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4" s="4" t="b">
         <v>1</v>
@@ -817,7 +896,7 @@
     </row>
     <row r="5" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5" s="4" t="b">
         <v>1</v>
@@ -825,21 +904,21 @@
     </row>
     <row r="6" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B6" s="4" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="B7" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>22</v>
       </c>
@@ -847,69 +926,96 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>12</v>
+    <row r="9" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>13</v>
+      <c r="A11" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="4">
         <v>3</v>
       </c>
+      <c r="B14" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="4">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B11" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -920,51 +1026,83 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>21</v>
+    </row>
+    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>30</v>
+      <c r="A4" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="4"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="4"/>
+    <row r="8" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>43</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/config.xlsx
+++ b/Documents/config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jsavory\Documents\GitHub\EA_WQ_WP00031\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jsavory\Documents\GitHub\Walleys App form into NIRS\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9945" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Assets" sheetId="1" r:id="rId1"/>
@@ -61,18 +61,6 @@
     <t>Email Inbox Folder</t>
   </si>
   <si>
-    <t>Inbox\Wally Quarry\In Progress</t>
-  </si>
-  <si>
-    <t>Inbox\Wally Quarry\Completed</t>
-  </si>
-  <si>
-    <t>Inbox\Wally Quarry</t>
-  </si>
-  <si>
-    <t>Inbox\Wally Quarry\Action Required</t>
-  </si>
-  <si>
     <t>Title</t>
   </si>
   <si>
@@ -97,9 +85,6 @@
     <t>Description Template</t>
   </si>
   <si>
-    <t>SWWM - Odour Walleys {0}{0}Rating: {1}{0}Odour Description: {2}{0}At home address?: {3}{0}Location Description: {4}{0}Smell Description: {5}{0}Date Noticed: {6}{0}Time Noticed: {7}</t>
-  </si>
-  <si>
     <t>Unable to Display Map</t>
   </si>
   <si>
@@ -121,22 +106,61 @@
     <t>Local Log File Path</t>
   </si>
   <si>
-    <t>C:\Users\{0}\Desktop\Walley_Quarry_Robot_Log_{1}.xlsx</t>
-  </si>
-  <si>
     <t>Email Account</t>
   </si>
   <si>
-    <t>jason.savory@environment-agency.gov.uk</t>
-  </si>
-  <si>
     <t>Agent Name</t>
   </si>
   <si>
-    <t>Jason Savory</t>
-  </si>
-  <si>
-    <t>Lunny Christopher D</t>
+    <t>Spell Check is complete</t>
+  </si>
+  <si>
+    <t>521 : Can't open Clipboard</t>
+  </si>
+  <si>
+    <t>Please spell check before passing the incident. Click Yes to launch it now.</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Run-time error '91'</t>
+  </si>
+  <si>
+    <t>Application</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Please confirm that you wish to forward this notification to</t>
+  </si>
+  <si>
+    <t>Do you wish to produce a notification summary report now?</t>
+  </si>
+  <si>
+    <t>Hayes Jamie</t>
+  </si>
+  <si>
+    <t>enquiries@environment-agency.gov.uk</t>
+  </si>
+  <si>
+    <t>NIRS FOR ICS\Jonathan T</t>
+  </si>
+  <si>
+    <t>NIRS FOR ICS\Jonathan T\Robot in progress</t>
+  </si>
+  <si>
+    <t>NIRS FOR ICS\1. Completed NIRS FOR ICS\4. Robot Completed</t>
+  </si>
+  <si>
+    <t>NIRS FOR ICS\Jonathan T\Robot exceptions</t>
+  </si>
+  <si>
+    <t>J:\ICS Protected\People Matters\Robotics Log Files\{0}\Walleys_Robot_Log_{1}.xlsx</t>
+  </si>
+  <si>
+    <t>SWWM - Odour Walleys {0}{0}Rating: {1}{0}Odour Description: {2}{0}At home address?: {3}{0}Location Description: {4}{0}Smell Description: {5}{0}</t>
   </si>
   <si>
     <t>Thank you for taking the time to report your experience about the odour from Walleys Landfill. &lt;br&gt;&lt;br&gt;Your report has been logged with reference number: {0}&lt;br&gt;&lt;br&gt;
@@ -149,44 +173,21 @@
 If you are concerned about yours or a family member’s mental and/or physical health, then you should contact your General Practitioner (GP), they can ask for appropriate advice from Public Health England. You can also contact NHS Direct on 0845 4647 or visit www.nhsdirect.nhs.uk
 &lt;br&gt;&lt;br&gt;
 Kind Regards
-&lt;br&gt;&lt;br&gt;{1}&lt;br&gt;
+&lt;br&gt;
+{1}
 Customer Service Adviser &lt;br&gt;
 Incident Communication Service&lt;br&gt;
 Environment Agency</t>
   </si>
   <si>
-    <t>Spell Check is complete</t>
-  </si>
-  <si>
-    <t>521 : Can't open Clipboard</t>
-  </si>
-  <si>
-    <t>Please spell check before passing the incident. Click Yes to launch it now.</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Run-time error '91'</t>
-  </si>
-  <si>
-    <t>Application</t>
-  </si>
-  <si>
-    <t>Data</t>
-  </si>
-  <si>
-    <t>Please confirm that you wish to forward this notification to</t>
-  </si>
-  <si>
-    <t>Do you wish to produce a notification summary report now?</t>
+    <t>Jason</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -206,6 +207,12 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -232,7 +239,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -253,6 +260,12 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
@@ -721,74 +734,74 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -825,10 +838,10 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -852,14 +865,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -880,15 +893,15 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>35</v>
+        <v>27</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B4" s="4" t="b">
         <v>1</v>
@@ -896,7 +909,7 @@
     </row>
     <row r="5" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B5" s="4" t="b">
         <v>1</v>
@@ -904,7 +917,7 @@
     </row>
     <row r="6" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B6" s="4" t="b">
         <v>1</v>
@@ -912,42 +925,42 @@
     </row>
     <row r="7" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B7" s="4" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>31</v>
+        <v>25</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -955,7 +968,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -963,7 +976,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -971,7 +984,7 @@
         <v>3</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -979,15 +992,15 @@
         <v>4</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -1001,11 +1014,12 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B11" r:id="rId1"/>
+    <hyperlink ref="B9" r:id="rId2" display="\\prodds.ntl\shared\NE\SHE\Groups1\ICS Protected\People Matters\Robotics Log Files\{0}\Walleys_Robot_Log_{1}.xlsx"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1015,7 +1029,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1026,82 +1040,82 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1110,4 +1124,439 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Defra document" ma:contentTypeID="0x010100A5BF1C78D9F64B679A5EBDE1C6598EBC0100040CE0A563279642A4E4F2E84657AA5A" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="966060d0038f22014d5f48f1d075f2b9">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="662745e8-e224-48e8-a2e3-254862b8c2f5" xmlns:ns3="97f96670-c786-4b18-bf2a-32c7cc01b520" xmlns:ns4="a1cc53fe-b63d-4766-a5c8-95c307055b81" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="941117f54ba4546450a8d66256a0d267" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
+    <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
+    <xsd:import namespace="662745e8-e224-48e8-a2e3-254862b8c2f5"/>
+    <xsd:import namespace="97f96670-c786-4b18-bf2a-32c7cc01b520"/>
+    <xsd:import namespace="a1cc53fe-b63d-4766-a5c8-95c307055b81"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:lae2bfa7b6474897ab4a53f76ea236c7" minOccurs="0"/>
+                <xsd:element ref="ns2:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:TaxCatchAllLabel" minOccurs="0"/>
+                <xsd:element ref="ns2:cf401361b24e474cb011be6eb76c0e76" minOccurs="0"/>
+                <xsd:element ref="ns2:n7493b4506bf40e28c373b1e51a33445" minOccurs="0"/>
+                <xsd:element ref="ns2:HOMigrated" minOccurs="0"/>
+                <xsd:element ref="ns2:k85d23755b3a46b5a51451cf336b2e9b" minOccurs="0"/>
+                <xsd:element ref="ns2:Team" minOccurs="0"/>
+                <xsd:element ref="ns2:Topic" minOccurs="0"/>
+                <xsd:element ref="ns2:ddeb1fd0a9ad4436a96525d34737dc44" minOccurs="0"/>
+                <xsd:element ref="ns2:fe59e9859d6a491389c5b03567f5dda5" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns1:_ip_UnifiedCompliancePolicyProperties" minOccurs="0"/>
+                <xsd:element ref="ns1:_ip_UnifiedCompliancePolicyUIAction" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceKeyPoints" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="http://schemas.microsoft.com/sharepoint/v3" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="_ip_UnifiedCompliancePolicyProperties" ma:index="31" nillable="true" ma:displayName="Unified Compliance Policy Properties" ma:hidden="true" ma:internalName="_ip_UnifiedCompliancePolicyProperties">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="_ip_UnifiedCompliancePolicyUIAction" ma:index="32" nillable="true" ma:displayName="Unified Compliance Policy UI Action" ma:hidden="true" ma:internalName="_ip_UnifiedCompliancePolicyUIAction">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="662745e8-e224-48e8-a2e3-254862b8c2f5" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="lae2bfa7b6474897ab4a53f76ea236c7" ma:index="8" ma:taxonomy="true" ma:internalName="lae2bfa7b6474897ab4a53f76ea236c7" ma:taxonomyFieldName="HOGovernmentSecurityClassification" ma:displayName="Government Security Classification" ma:readOnly="false" ma:default="6;#Official|14c80daa-741b-422c-9722-f71693c9ede4" ma:fieldId="{5ae2bfa7-b647-4897-ab4a-53f76ea236c7}" ma:sspId="d1117845-93f6-4da3-abaa-fcb4fa669c78" ma:termSetId="56209604-fc17-4ace-9b7b-f45f0f17d50b" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="false" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="9" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{daee00cd-f7d0-447d-8604-0db82c6420eb}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="a1cc53fe-b63d-4766-a5c8-95c307055b81">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAllLabel" ma:index="10" nillable="true" ma:displayName="Taxonomy Catch All Column1" ma:hidden="true" ma:list="{daee00cd-f7d0-447d-8604-0db82c6420eb}" ma:internalName="TaxCatchAllLabel" ma:readOnly="true" ma:showField="CatchAllDataLabel" ma:web="a1cc53fe-b63d-4766-a5c8-95c307055b81">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="cf401361b24e474cb011be6eb76c0e76" ma:index="12" ma:taxonomy="true" ma:internalName="cf401361b24e474cb011be6eb76c0e76" ma:taxonomyFieldName="HOCopyrightLevel" ma:displayName="Copyright level" ma:readOnly="false" ma:default="7;#Crown|69589897-2828-4761-976e-717fd8e631c9" ma:fieldId="{cf401361-b24e-474c-b011-be6eb76c0e76}" ma:sspId="d1117845-93f6-4da3-abaa-fcb4fa669c78" ma:termSetId="bdd694c6-7266-48f2-93d6-d15992cd203e" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="false" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="n7493b4506bf40e28c373b1e51a33445" ma:index="14" nillable="true" ma:taxonomy="true" ma:internalName="n7493b4506bf40e28c373b1e51a33445" ma:taxonomyFieldName="HOSiteType" ma:displayName="Site type" ma:default="10;#Community|144ac7d7-0b9a-42f9-9385-2935294b6de3" ma:fieldId="{77493b45-06bf-40e2-8c37-3b1e51a33445}" ma:sspId="d1117845-93f6-4da3-abaa-fcb4fa669c78" ma:termSetId="4518b03a-1a05-49af-8bf2-e5548589f21b" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="false" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="HOMigrated" ma:index="16" nillable="true" ma:displayName="Migrated" ma:default="0" ma:internalName="HOMigrated">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Boolean"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="k85d23755b3a46b5a51451cf336b2e9b" ma:index="17" nillable="true" ma:taxonomy="true" ma:internalName="k85d23755b3a46b5a51451cf336b2e9b" ma:taxonomyFieldName="InformationType" ma:displayName="Information Type" ma:fieldId="{485d2375-5b3a-46b5-a514-51cf336b2e9b}" ma:sspId="d1117845-93f6-4da3-abaa-fcb4fa669c78" ma:termSetId="75cb3767-2327-4339-b999-281b3f58ac0a" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="false" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="Team" ma:index="19" nillable="true" ma:displayName="Team" ma:default="Digital Robotic Automation" ma:internalName="Team">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="Topic" ma:index="20" nillable="true" ma:displayName="Topic" ma:default="Work Packages" ma:internalName="Topic">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="ddeb1fd0a9ad4436a96525d34737dc44" ma:index="21" nillable="true" ma:taxonomy="true" ma:internalName="ddeb1fd0a9ad4436a96525d34737dc44" ma:taxonomyFieldName="Distribution" ma:displayName="Distribution" ma:default="9;#Internal Defra Group|0867f7b3-e76e-40ca-bb1f-5ba341a49230" ma:fieldId="{ddeb1fd0-a9ad-4436-a965-25d34737dc44}" ma:sspId="d1117845-93f6-4da3-abaa-fcb4fa669c78" ma:termSetId="9c8b5dbf-8bad-46e4-8055-6e01c16178d6" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="false" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="fe59e9859d6a491389c5b03567f5dda5" ma:index="23" nillable="true" ma:taxonomy="true" ma:internalName="fe59e9859d6a491389c5b03567f5dda5" ma:taxonomyFieldName="OrganisationalUnit" ma:displayName="Organisational Unit" ma:default="8;#DDTS|4b496496-8422-4e09-ae59-802e7f67f771" ma:fieldId="{fe59e985-9d6a-4913-89c5-b03567f5dda5}" ma:sspId="d1117845-93f6-4da3-abaa-fcb4fa669c78" ma:termSetId="55eb802e-fbca-455b-a7d2-d5919d4ea3d2" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="false" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="97f96670-c786-4b18-bf2a-32c7cc01b520" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="25" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="26" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="29" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="30" nillable="true" ma:displayName="Length (seconds)" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="33" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="34" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="a1cc53fe-b63d-4766-a5c8-95c307055b81" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="27" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="28" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="d1117845-93f6-4da3-abaa-fcb4fa669c78" ContentTypeId="0x010100A5BF1C78D9F64B679A5EBDE1C6598EBC01" PreviousValue="false"/>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <cf401361b24e474cb011be6eb76c0e76 xmlns="662745e8-e224-48e8-a2e3-254862b8c2f5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Crown</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">69589897-2828-4761-976e-717fd8e631c9</TermId>
+        </TermInfo>
+      </Terms>
+    </cf401361b24e474cb011be6eb76c0e76>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <k85d23755b3a46b5a51451cf336b2e9b xmlns="662745e8-e224-48e8-a2e3-254862b8c2f5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </k85d23755b3a46b5a51451cf336b2e9b>
+    <Topic xmlns="662745e8-e224-48e8-a2e3-254862b8c2f5">Work Packages</Topic>
+    <HOMigrated xmlns="662745e8-e224-48e8-a2e3-254862b8c2f5">false</HOMigrated>
+    <ddeb1fd0a9ad4436a96525d34737dc44 xmlns="662745e8-e224-48e8-a2e3-254862b8c2f5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Internal Defra Group</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">0867f7b3-e76e-40ca-bb1f-5ba341a49230</TermId>
+        </TermInfo>
+      </Terms>
+    </ddeb1fd0a9ad4436a96525d34737dc44>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <lae2bfa7b6474897ab4a53f76ea236c7 xmlns="662745e8-e224-48e8-a2e3-254862b8c2f5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Official</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">14c80daa-741b-422c-9722-f71693c9ede4</TermId>
+        </TermInfo>
+      </Terms>
+    </lae2bfa7b6474897ab4a53f76ea236c7>
+    <TaxCatchAll xmlns="662745e8-e224-48e8-a2e3-254862b8c2f5">
+      <Value>10</Value>
+      <Value>9</Value>
+      <Value>8</Value>
+      <Value>7</Value>
+      <Value>6</Value>
+    </TaxCatchAll>
+    <fe59e9859d6a491389c5b03567f5dda5 xmlns="662745e8-e224-48e8-a2e3-254862b8c2f5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">DDTS</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">4b496496-8422-4e09-ae59-802e7f67f771</TermId>
+        </TermInfo>
+      </Terms>
+    </fe59e9859d6a491389c5b03567f5dda5>
+    <Team xmlns="662745e8-e224-48e8-a2e3-254862b8c2f5">Digital Robotic Automation</Team>
+    <n7493b4506bf40e28c373b1e51a33445 xmlns="662745e8-e224-48e8-a2e3-254862b8c2f5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Community</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">144ac7d7-0b9a-42f9-9385-2935294b6de3</TermId>
+        </TermInfo>
+      </Terms>
+    </n7493b4506bf40e28c373b1e51a33445>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8B0C1FC-292C-435A-97DB-4855EBBBAAB8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="662745e8-e224-48e8-a2e3-254862b8c2f5"/>
+    <ds:schemaRef ds:uri="97f96670-c786-4b18-bf2a-32c7cc01b520"/>
+    <ds:schemaRef ds:uri="a1cc53fe-b63d-4766-a5c8-95c307055b81"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6890D74-70F3-4A90-9D5B-EBE10390DAD1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2FFFE261-B0AE-4C8C-BD33-2EE90BE3D489}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{027021F3-0F57-4E32-99BF-C0FBFED6175E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="a1cc53fe-b63d-4766-a5c8-95c307055b81"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="97f96670-c786-4b18-bf2a-32c7cc01b520"/>
+    <ds:schemaRef ds:uri="662745e8-e224-48e8-a2e3-254862b8c2f5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>